--- a/original_files/antibiotics/patD.xlsx
+++ b/original_files/antibiotics/patD.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dani\Google Drive\Tesis\Proyectos\Time_series\Projects\antibiotic perturbation\tablas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="patD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -1900,7 +1898,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1935,7 +1933,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2112,7 +2110,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2126,9 +2124,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2244,7 +2242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2360,7 +2358,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -2476,7 +2474,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -2592,7 +2590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -2708,7 +2706,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2824,7 +2822,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2940,7 +2938,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -3056,7 +3054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -3172,7 +3170,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -3288,7 +3286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -3404,7 +3402,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -3520,7 +3518,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -3636,7 +3634,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="A14" t="s">
         <v>173</v>
       </c>
@@ -3752,7 +3750,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -3868,7 +3866,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -3984,7 +3982,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -4100,7 +4098,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -4216,7 +4214,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -4332,7 +4330,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -4448,7 +4446,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -4564,7 +4562,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -4680,7 +4678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -4796,7 +4794,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -4912,7 +4910,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -5028,7 +5026,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -5144,7 +5142,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -5260,7 +5258,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28" t="s">
         <v>224</v>
       </c>
@@ -5376,7 +5374,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -5492,7 +5490,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30" t="s">
         <v>227</v>
       </c>
@@ -5608,7 +5606,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31" t="s">
         <v>228</v>
       </c>
@@ -5724,7 +5722,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38">
       <c r="A32" t="s">
         <v>258</v>
       </c>
@@ -5840,7 +5838,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38">
       <c r="A33" t="s">
         <v>290</v>
       </c>
@@ -5956,7 +5954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38">
       <c r="A34" t="s">
         <v>291</v>
       </c>
@@ -6072,7 +6070,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38">
       <c r="A35" t="s">
         <v>292</v>
       </c>
@@ -6188,7 +6186,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38">
       <c r="A36" t="s">
         <v>298</v>
       </c>
@@ -6304,7 +6302,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37" t="s">
         <v>302</v>
       </c>
@@ -6420,7 +6418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38" t="s">
         <v>303</v>
       </c>
@@ -6536,7 +6534,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38">
       <c r="A39" t="s">
         <v>327</v>
       </c>
@@ -6652,7 +6650,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38">
       <c r="A40" t="s">
         <v>358</v>
       </c>
@@ -6768,7 +6766,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38">
       <c r="A41" t="s">
         <v>362</v>
       </c>
@@ -6884,7 +6882,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38">
       <c r="A42" t="s">
         <v>377</v>
       </c>
@@ -7000,7 +6998,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38">
       <c r="A43" t="s">
         <v>391</v>
       </c>
@@ -7116,7 +7114,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38">
       <c r="A44" t="s">
         <v>392</v>
       </c>
@@ -7232,7 +7230,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45" t="s">
         <v>393</v>
       </c>
@@ -7348,7 +7346,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38">
       <c r="A46" t="s">
         <v>410</v>
       </c>
@@ -7464,7 +7462,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38">
       <c r="A47" t="s">
         <v>428</v>
       </c>
@@ -7580,7 +7578,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38">
       <c r="A48" t="s">
         <v>429</v>
       </c>
@@ -7696,7 +7694,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38">
       <c r="A49" t="s">
         <v>430</v>
       </c>
@@ -7812,7 +7810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38">
       <c r="A50" t="s">
         <v>431</v>
       </c>
@@ -7928,7 +7926,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38">
       <c r="A51" t="s">
         <v>432</v>
       </c>
@@ -8044,7 +8042,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52" t="s">
         <v>441</v>
       </c>
@@ -8160,7 +8158,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38">
       <c r="A53" t="s">
         <v>473</v>
       </c>
@@ -8276,7 +8274,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38">
       <c r="A54" t="s">
         <v>474</v>
       </c>
@@ -8392,7 +8390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38">
       <c r="A55" t="s">
         <v>475</v>
       </c>
@@ -8508,7 +8506,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38">
       <c r="A56" t="s">
         <v>492</v>
       </c>
@@ -8624,7 +8622,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38">
       <c r="A57" t="s">
         <v>501</v>
       </c>
@@ -8740,7 +8738,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38">
       <c r="A58" t="s">
         <v>516</v>
       </c>
@@ -8856,7 +8854,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38">
       <c r="A59" t="s">
         <v>531</v>
       </c>
@@ -8972,7 +8970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38">
       <c r="A60" t="s">
         <v>532</v>
       </c>
@@ -9088,7 +9086,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38">
       <c r="A61" t="s">
         <v>533</v>
       </c>
@@ -9204,7 +9202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38">
       <c r="A62" t="s">
         <v>534</v>
       </c>
@@ -9320,7 +9318,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38">
       <c r="A63" t="s">
         <v>535</v>
       </c>
@@ -9436,7 +9434,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="A64" t="s">
         <v>536</v>
       </c>
@@ -9552,7 +9550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38">
       <c r="A65" t="s">
         <v>537</v>
       </c>
@@ -9668,7 +9666,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38">
       <c r="A66" t="s">
         <v>538</v>
       </c>
@@ -9784,7 +9782,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38">
       <c r="A67" t="s">
         <v>539</v>
       </c>
@@ -9900,7 +9898,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38">
       <c r="A68" t="s">
         <v>547</v>
       </c>
@@ -10016,7 +10014,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="A69" t="s">
         <v>548</v>
       </c>
@@ -10132,7 +10130,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38">
       <c r="A70" t="s">
         <v>573</v>
       </c>
@@ -10248,7 +10246,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38">
       <c r="A71" t="s">
         <v>574</v>
       </c>
@@ -10364,7 +10362,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38">
       <c r="A72" t="s">
         <v>575</v>
       </c>
@@ -10480,7 +10478,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38">
       <c r="A73" t="s">
         <v>576</v>
       </c>
@@ -10596,7 +10594,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38">
       <c r="A74" t="s">
         <v>577</v>
       </c>
@@ -10712,7 +10710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38">
       <c r="A75" t="s">
         <v>579</v>
       </c>
@@ -10830,5 +10828,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>